--- a/documentatie/Aanwezigheid periode 4.xlsx
+++ b/documentatie/Aanwezigheid periode 4.xlsx
@@ -1,21 +1,110 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Namen</t>
+  </si>
+  <si>
+    <t>Timo</t>
+  </si>
+  <si>
+    <t>Joost</t>
+  </si>
+  <si>
+    <t>Eljakim</t>
+  </si>
+  <si>
+    <t>Jan-Paul</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Z = Ziek</t>
+  </si>
+  <si>
+    <t>V = Aanwezig</t>
+  </si>
+  <si>
+    <t>O = Ongeoorloofd</t>
+  </si>
+  <si>
+    <t>Dag 1</t>
+  </si>
+  <si>
+    <t>Dag 2</t>
+  </si>
+  <si>
+    <t>Dag 3</t>
+  </si>
+  <si>
+    <t>Dag 4</t>
+  </si>
+  <si>
+    <t>Dag 5</t>
+  </si>
+  <si>
+    <t>Dag 6</t>
+  </si>
+  <si>
+    <t>Dag 7</t>
+  </si>
+  <si>
+    <t>Dag 8</t>
+  </si>
+  <si>
+    <t>Dag 9</t>
+  </si>
+  <si>
+    <t>Dag 10</t>
+  </si>
+  <si>
+    <t>Dag 11</t>
+  </si>
+  <si>
+    <t>Dag 12</t>
+  </si>
+  <si>
+    <t>Dag 13</t>
+  </si>
+  <si>
+    <t>Dag 14</t>
+  </si>
+  <si>
+    <t>Dag 15</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -24,17 +113,47 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -44,21 +163,67 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -96,9 +261,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +298,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -168,7 +333,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -341,13 +506,199 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B2" s="3"/>
+      <c r="C2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="M2:Q2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documentatie/Aanwezigheid periode 4.xlsx
+++ b/documentatie/Aanwezigheid periode 4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Week 1</t>
   </si>
@@ -170,38 +170,38 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,82 +510,82 @@
   <dimension ref="B2:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B2" s="3"/>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="4" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="12" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -593,89 +593,97 @@
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
+      <c r="D5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
+      <c r="D6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
+      <c r="D7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" t="s">

--- a/documentatie/Aanwezigheid periode 4.xlsx
+++ b/documentatie/Aanwezigheid periode 4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>Week 1</t>
   </si>
@@ -296,6 +296,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -331,6 +348,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -510,7 +544,7 @@
   <dimension ref="B2:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -599,7 +633,9 @@
       <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
       <c r="H4" s="1"/>
@@ -623,7 +659,9 @@
       <c r="D5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="1"/>
@@ -647,7 +685,9 @@
       <c r="D6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="1"/>
@@ -671,7 +711,9 @@
       <c r="D7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
       <c r="H7" s="1"/>

--- a/documentatie/Aanwezigheid periode 4.xlsx
+++ b/documentatie/Aanwezigheid periode 4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>Week 1</t>
   </si>
@@ -43,9 +43,6 @@
     <t>V</t>
   </si>
   <si>
-    <t>Z</t>
-  </si>
-  <si>
     <t>Z = Ziek</t>
   </si>
   <si>
@@ -98,13 +95,19 @@
   </si>
   <si>
     <t>Dag 15</t>
+  </si>
+  <si>
+    <t>V daarna Z</t>
+  </si>
+  <si>
+    <t>O</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,8 +115,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,8 +141,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -159,15 +186,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -179,16 +262,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -203,6 +277,45 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -544,203 +657,241 @@
   <dimension ref="B2:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="3"/>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="14" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="N3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
+      <c r="C4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
+      <c r="C5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
+      <c r="C6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
+      <c r="C7" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
+      <c r="B9" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="25"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
+      <c r="B10" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="26"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
+      <c r="B11" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/documentatie/Aanwezigheid periode 4.xlsx
+++ b/documentatie/Aanwezigheid periode 4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="29">
   <si>
     <t>Week 1</t>
   </si>
@@ -249,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -265,18 +265,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -292,10 +280,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -305,17 +289,30 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -656,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -667,27 +664,27 @@
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="10" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
@@ -735,7 +732,7 @@
       <c r="P3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -743,155 +740,211 @@
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="18"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
+      <c r="C5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="19"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
+      <c r="D6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="19"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="20" t="s">
+      <c r="C7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
+      <c r="I7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q7" s="20"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="25"/>
+      <c r="C9" s="15"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="26"/>
+      <c r="C10" s="16"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
